--- a/C0822G1.xlsx
+++ b/C0822G1.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75F4458-B3F5-48AB-ABF8-493ACBB80568}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5088DEE3-7CAC-42BB-BBC5-2BECCB1515D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DIEM DANH" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>TRUNG</t>
   </si>
@@ -80,16 +80,33 @@
   </si>
   <si>
     <t>CẤM THI</t>
+  </si>
+  <si>
+    <t>08/11 sáng
+09/11 sáng</t>
+  </si>
+  <si>
+    <t>08/11 sáng</t>
+  </si>
+  <si>
+    <t>08/11 chiều</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -115,11 +132,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,10 +418,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,7 +436,7 @@
     <col min="9" max="9" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>9</v>
       </c>
@@ -452,85 +471,161 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="J2">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <v>4.8</v>
+      </c>
+      <c r="M2" s="2">
+        <f>AVERAGE(J2:K2)</f>
+        <v>4.6500000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="J3">
         <v>4.75</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>4.2</v>
+      </c>
+      <c r="M3" s="2">
+        <f t="shared" ref="M3:M10" si="0">AVERAGE(J3:K3)</f>
+        <v>4.4749999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
       <c r="J4">
         <v>5.75</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>3.7</v>
+      </c>
+      <c r="M4" s="2">
+        <f t="shared" si="0"/>
+        <v>4.7249999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="J5">
         <v>7.25</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>6.125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="J6">
         <v>4.25</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <v>4.05</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" si="0"/>
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="J7">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>5.9249999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="J8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <v>4.95</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>5.4749999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="J9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <v>7.05</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>6.0250000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
+      <c r="K10">
+        <v>2.65</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" si="0"/>
+        <v>1.325</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>